--- a/biology/Zoologie/Grand-duc_du_Cap/Grand-duc_du_Cap.xlsx
+++ b/biology/Zoologie/Grand-duc_du_Cap/Grand-duc_du_Cap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo capensis
 Le Grand-duc du Cap  (Bubo capensis) est une espèce de rapace nocturne appartenant à la famille des Strigidae et à la sous-famille des Striginae.
@@ -512,7 +524,9 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(Bubo capensis) est une espèce que l'on rencontre en : Érythrée et Éthiopie, au sud du Kenya, au Lesotho, au Malawi, au Mozambique, en Namibie, en Afrique du Sud, au Swaziland, en Tanzanie et au Zimbabwe.
 La répartition de l'espèce est inégale et irrégulière et les hiboux sont plus régulièrement réparties à travers les pays d'afrique au sud.
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe trois sous-espèces :
 Bubo capensis capensis ;
